--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H2">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N2">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q2">
-        <v>4139.472814073175</v>
+        <v>4220.197244639925</v>
       </c>
       <c r="R2">
-        <v>37255.25532665857</v>
+        <v>37981.77520175932</v>
       </c>
       <c r="S2">
-        <v>0.343179496328771</v>
+        <v>0.3310198188869581</v>
       </c>
       <c r="T2">
-        <v>0.343179496328771</v>
+        <v>0.3310198188869581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H3">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q3">
-        <v>570.926757978016</v>
+        <v>425.5857915098827</v>
       </c>
       <c r="R3">
-        <v>5138.340821802144</v>
+        <v>3830.272123588944</v>
       </c>
       <c r="S3">
-        <v>0.04733220051050929</v>
+        <v>0.03338169366500403</v>
       </c>
       <c r="T3">
-        <v>0.04733220051050929</v>
+        <v>0.03338169366500403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H4">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P4">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q4">
-        <v>1929.622020896579</v>
+        <v>1438.397664153257</v>
       </c>
       <c r="R4">
-        <v>17366.59818806921</v>
+        <v>12945.57897737931</v>
       </c>
       <c r="S4">
-        <v>0.159973683360078</v>
+        <v>0.1128236683439803</v>
       </c>
       <c r="T4">
-        <v>0.159973683360078</v>
+        <v>0.1128236683439803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
         <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N5">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q5">
-        <v>2051.924636613493</v>
+        <v>2806.353646312025</v>
       </c>
       <c r="R5">
-        <v>18467.32172952143</v>
+        <v>25257.18281680823</v>
       </c>
       <c r="S5">
-        <v>0.1701130783861133</v>
+        <v>0.2201220990120384</v>
       </c>
       <c r="T5">
-        <v>0.1701130783861133</v>
+        <v>0.2201220990120384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
         <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q6">
-        <v>283.0067337111519</v>
+        <v>283.006733711152</v>
       </c>
       <c r="R6">
         <v>2547.060603400368</v>
       </c>
       <c r="S6">
-        <v>0.02346243415404319</v>
+        <v>0.02219821309438539</v>
       </c>
       <c r="T6">
-        <v>0.02346243415404319</v>
+        <v>0.02219821309438539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
         <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P7">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q7">
-        <v>956.5080245408305</v>
+        <v>956.5080245408309</v>
       </c>
       <c r="R7">
-        <v>8608.572220867474</v>
+        <v>8608.572220867478</v>
       </c>
       <c r="S7">
-        <v>0.079298489648336</v>
+        <v>0.07502566697553557</v>
       </c>
       <c r="T7">
-        <v>0.079298489648336</v>
+        <v>0.07502566697553556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N8">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q8">
-        <v>1328.28056977968</v>
+        <v>1816.648113587014</v>
       </c>
       <c r="R8">
-        <v>11954.52512801712</v>
+        <v>16349.83302228312</v>
       </c>
       <c r="S8">
-        <v>0.1101199784113924</v>
+        <v>0.142492517453936</v>
       </c>
       <c r="T8">
-        <v>0.1101199784113924</v>
+        <v>0.1424925174539361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q9">
         <v>183.1998791757493</v>
@@ -1004,10 +1004,10 @@
         <v>1648.798912581744</v>
       </c>
       <c r="S9">
-        <v>0.01518803120273711</v>
+        <v>0.0143696579352758</v>
       </c>
       <c r="T9">
-        <v>0.01518803120273711</v>
+        <v>0.0143696579352758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P10">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q10">
         <v>619.180159527101</v>
@@ -1066,10 +1066,10 @@
         <v>5572.621435743908</v>
       </c>
       <c r="S10">
-        <v>0.05133260799801989</v>
+        <v>0.04856666463288646</v>
       </c>
       <c r="T10">
-        <v>0.05133260799801988</v>
+        <v>0.04856666463288646</v>
       </c>
     </row>
   </sheetData>
